--- a/sofa/sofascore_matches_2026-02-20.xlsx
+++ b/sofa/sofascore_matches_2026-02-20.xlsx
@@ -843,10 +843,10 @@
       <c r="P7" s="2" t="inlineStr"/>
       <c r="Q7" s="2" t="inlineStr"/>
       <c r="R7" s="2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="8">
@@ -1373,10 +1373,10 @@
       <c r="P17" s="2" t="inlineStr"/>
       <c r="Q17" s="2" t="inlineStr"/>
       <c r="R17" s="2" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="18">
@@ -1691,10 +1691,10 @@
       <c r="P23" s="2" t="inlineStr"/>
       <c r="Q23" s="2" t="inlineStr"/>
       <c r="R23" s="2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24">
@@ -1850,10 +1850,10 @@
       <c r="P26" s="2" t="inlineStr"/>
       <c r="Q26" s="2" t="inlineStr"/>
       <c r="R26" s="2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S26" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="27">
